--- a/vgp_database/Mistastin_Lake_impact.xlsx
+++ b/vgp_database/Mistastin_Lake_impact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="86">
   <si>
     <t>Name:</t>
   </si>
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -222,6 +222,9 @@
     <t>South Shore</t>
   </si>
   <si>
+    <t>AF</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
   </si>
   <si>
     <t>Discovery Hill</t>
+  </si>
+  <si>
+    <t>AF-TH</t>
   </si>
   <si>
     <t>this site is superseded by the row below, which is the same result after correction for anisotropy.</t>
@@ -376,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,13 +441,15 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -455,13 +463,7 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -470,11 +472,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -494,7 +508,7 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -511,13 +525,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -1076,15 +1096,31 @@
       <c r="Y5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="21"/>
+      <c r="Z5" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>1.0</v>
+      </c>
       <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
+      <c r="AC5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AF5" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AG5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" s="20">
+        <v>1.0</v>
+      </c>
       <c r="AI5" s="23" t="s">
         <v>46</v>
       </c>
@@ -1157,15 +1193,31 @@
       <c r="Y6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="21"/>
+      <c r="Z6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>1.0</v>
+      </c>
       <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="22"/>
+      <c r="AC6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AF6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AG6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" s="20">
+        <v>1.0</v>
+      </c>
       <c r="AI6" s="24" t="s">
         <v>51</v>
       </c>
@@ -1398,28 +1450,28 @@
       <c r="A10" s="14">
         <v>1.0</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>55.8473017344442</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="28">
         <v>296.6194921459192</v>
       </c>
       <c r="E10" s="14">
         <v>7.0</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <v>201.0</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="29">
         <v>-68.9</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="30">
         <v>96.77419354838666</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="29">
         <v>5.4</v>
       </c>
       <c r="J10" s="12"/>
@@ -1452,13 +1504,19 @@
       <c r="Y10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="33" t="s">
+      <c r="Z10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="28">
+      <c r="AA10" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="20">
         <v>0.0</v>
       </c>
       <c r="AE10" s="13"/>
@@ -1488,25 +1546,25 @@
       <c r="A11" s="14">
         <v>2.0</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>55.8327313134927</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="28">
         <v>296.6308596345922</v>
       </c>
       <c r="E11" s="14">
         <v>8.0</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <v>186.7</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="29">
         <v>-67.4</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="30">
         <v>54.26356589147306</v>
       </c>
       <c r="I11" s="14">
@@ -1542,13 +1600,19 @@
       <c r="Y11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="33" t="s">
+      <c r="Z11" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="28">
+      <c r="AA11" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="20">
         <v>0.0</v>
       </c>
       <c r="AE11" s="13"/>
@@ -1578,25 +1642,25 @@
       <c r="A12" s="14">
         <v>3.0</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>55.8315307372506</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="28">
         <v>296.6522483297039</v>
       </c>
       <c r="E12" s="14">
         <v>5.0</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <v>177.7</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="29">
         <v>-67.7</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <v>117.64705882353007</v>
       </c>
       <c r="I12" s="14">
@@ -1632,13 +1696,19 @@
       <c r="Y12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="33" t="s">
+      <c r="Z12" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="28">
+      <c r="AA12" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB12" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD12" s="20">
         <v>0.0</v>
       </c>
       <c r="AE12" s="13"/>
@@ -1666,27 +1736,27 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="29">
+      <c r="B13" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="28">
         <v>55.8899204424108</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="28">
         <v>296.5890255910606</v>
       </c>
       <c r="E13" s="14">
         <v>6.0</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <v>165.1</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="29">
         <v>-68.2</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="30">
         <v>166.6666666666653</v>
       </c>
       <c r="I13" s="14">
@@ -1722,13 +1792,19 @@
       <c r="Y13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="33" t="s">
+      <c r="Z13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="28">
+      <c r="AA13" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB13" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD13" s="20">
         <v>0.0</v>
       </c>
       <c r="AE13" s="13"/>
@@ -1756,27 +1832,27 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>55.8989520754683</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="28">
         <v>296.5914707900692</v>
       </c>
       <c r="E14" s="14">
         <v>7.0</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <v>174.9</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="29">
         <v>-68.6</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="30">
         <v>111.11111111111056</v>
       </c>
       <c r="I14" s="14">
@@ -1812,13 +1888,19 @@
       <c r="Y14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="33" t="s">
+      <c r="Z14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="28">
+      <c r="AA14" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD14" s="20">
         <v>0.0</v>
       </c>
       <c r="AE14" s="13"/>
@@ -1848,25 +1930,25 @@
       <c r="A15" s="14">
         <v>6.0</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="B15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="28">
         <v>55.9157687884579</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="28">
         <v>296.6097543825422</v>
       </c>
       <c r="E15" s="14">
         <v>8.0</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <v>170.8</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="29">
         <v>-66.0</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="30">
         <v>189.1891891891896</v>
       </c>
       <c r="I15" s="14">
@@ -1902,13 +1984,19 @@
       <c r="Y15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="33" t="s">
+      <c r="Z15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD15" s="28">
+      <c r="AA15" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD15" s="20">
         <v>0.0</v>
       </c>
       <c r="AE15" s="13"/>
@@ -1936,27 +2024,27 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="29">
+      <c r="B16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="28">
         <v>55.9391601547815</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="28">
         <v>296.76055339838547</v>
       </c>
       <c r="E16" s="14">
         <v>9.0</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <v>196.7</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="29">
         <v>-68.9</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <v>126.98412698412575</v>
       </c>
       <c r="I16" s="14">
@@ -1989,16 +2077,22 @@
       <c r="X16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="33" t="s">
+      <c r="Y16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" s="28">
+      <c r="AA16" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB16" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD16" s="20">
         <v>0.0</v>
       </c>
       <c r="AE16" s="13"/>
@@ -2028,25 +2122,25 @@
       <c r="A17" s="14">
         <v>8.0</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="B17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="28">
         <v>55.8872245231648</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
         <v>296.6516034293508</v>
       </c>
       <c r="E17" s="14">
         <v>7.0</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <v>179.2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="29">
         <v>-68.6</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="30">
         <v>260.86956521739484</v>
       </c>
       <c r="I17" s="14">
@@ -2082,13 +2176,19 @@
       <c r="Y17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="33" t="s">
+      <c r="Z17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD17" s="28">
+      <c r="AA17" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB17" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD17" s="20">
         <v>0.0</v>
       </c>
       <c r="AE17" s="13"/>
@@ -2118,25 +2218,25 @@
       <c r="A18" s="14">
         <v>9.0</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>55.8322642924368</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
         <v>296.6781740762271</v>
       </c>
       <c r="E18" s="14">
         <v>8.0</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>169.9</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="29">
         <v>-68.1</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <v>35.532994923857856</v>
       </c>
       <c r="I18" s="14">
@@ -2172,13 +2272,19 @@
       <c r="Y18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="33" t="s">
+      <c r="Z18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="28">
+      <c r="AA18" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB18" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD18" s="20">
         <v>0.0</v>
       </c>
       <c r="AE18" s="13"/>
@@ -2208,25 +2314,25 @@
       <c r="A19" s="14">
         <v>10.0</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>55.8369680980044</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <v>296.72359375129963</v>
       </c>
       <c r="E19" s="14">
         <v>8.0</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="29">
         <v>174.6</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="29">
         <v>-66.3</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="30">
         <v>350.00000000000745</v>
       </c>
       <c r="I19" s="14">
@@ -2253,22 +2359,28 @@
       <c r="V19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="W19" s="34" t="s">
+      <c r="W19" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="X19" s="34" t="s">
+      <c r="X19" s="33" t="s">
         <v>44</v>
       </c>
       <c r="Y19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="33" t="s">
+      <c r="Z19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="28">
+      <c r="AA19" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="20">
         <v>0.0</v>
       </c>
       <c r="AE19" s="13"/>
@@ -2278,7 +2390,7 @@
       <c r="AG19" s="14">
         <v>1.0</v>
       </c>
-      <c r="AH19" s="35"/>
+      <c r="AH19" s="37"/>
       <c r="AI19" s="23" t="s">
         <v>46</v>
       </c>
@@ -2295,52 +2407,52 @@
       <c r="AP19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="36">
+      <c r="A20" s="38">
         <v>12.0</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="38">
+      <c r="B20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="40">
         <v>55.8587</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="40">
         <v>296.5646</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="41">
         <v>6.0</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="42">
         <v>166.9</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="43">
         <v>-70.0</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="44">
         <v>1213.0</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="38">
         <v>1.9</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="36">
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="38">
         <v>36.6</v>
       </c>
-      <c r="R20" s="36">
+      <c r="R20" s="38">
         <v>34.6</v>
       </c>
       <c r="S20" s="16"/>
-      <c r="T20" s="36">
+      <c r="T20" s="38">
         <v>38.6</v>
       </c>
-      <c r="U20" s="45"/>
-      <c r="V20" s="46" t="s">
+      <c r="U20" s="47"/>
+      <c r="V20" s="48" t="s">
         <v>42</v>
       </c>
       <c r="W20" s="18" t="s">
@@ -2349,66 +2461,72 @@
       <c r="X20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Y20" s="36" t="s">
+      <c r="Y20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD20" s="36">
+      <c r="Z20" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA20" s="20">
         <v>1.0</v>
       </c>
-      <c r="AE20" s="36">
+      <c r="AB20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD20" s="38">
         <v>1.0</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AE20" s="38">
         <v>1.0</v>
       </c>
-      <c r="AG20" s="36">
+      <c r="AF20" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="AG20" s="38">
         <v>2.0</v>
       </c>
       <c r="AH20" s="13"/>
-      <c r="AI20" s="47" t="s">
+      <c r="AI20" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AJ20" s="47" t="s">
+      <c r="AJ20" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="47" t="s">
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
       <c r="AP20" s="14"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14">
         <v>1.0</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B21" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="28">
         <v>55.8596</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
         <v>296.5636</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="20">
         <v>8.0</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <v>181.5</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="51">
         <v>-66.8</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="30">
         <v>186.0</v>
       </c>
       <c r="I21" s="14">
@@ -2416,7 +2534,7 @@
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="49"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="12"/>
       <c r="N21" s="16"/>
       <c r="O21" s="12"/>
@@ -2444,11 +2562,17 @@
       <c r="Y21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="48" t="s">
-        <v>68</v>
+      <c r="Z21" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA21" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB21" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD21" s="14">
         <v>1.0</v>
@@ -2482,25 +2606,25 @@
       <c r="A22" s="14">
         <v>2.0</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="29">
+      <c r="B22" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="28">
         <v>55.8601</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
         <v>296.5662</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="20">
         <v>6.0</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="29">
         <v>153.5</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="51">
         <v>-65.0</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="30">
         <v>120.0</v>
       </c>
       <c r="I22" s="14">
@@ -2508,7 +2632,7 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="49"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="12"/>
       <c r="N22" s="16"/>
       <c r="O22" s="12"/>
@@ -2536,11 +2660,17 @@
       <c r="Y22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="48" t="s">
-        <v>68</v>
+      <c r="Z22" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA22" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB22" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD22" s="14">
         <v>1.0</v>
@@ -2574,25 +2704,25 @@
       <c r="A23" s="14">
         <v>3.0</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="29">
+      <c r="B23" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="28">
         <v>55.8603</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="28">
         <v>296.5657</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="20">
         <v>4.0</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="29">
         <v>178.3</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="51">
         <v>-72.1</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="30">
         <v>178.0</v>
       </c>
       <c r="I23" s="14">
@@ -2600,7 +2730,7 @@
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="12"/>
       <c r="N23" s="16"/>
       <c r="O23" s="12"/>
@@ -2628,11 +2758,17 @@
       <c r="Y23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="48" t="s">
-        <v>68</v>
+      <c r="Z23" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA23" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB23" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD23" s="14">
         <v>1.0</v>
@@ -2666,25 +2802,25 @@
       <c r="A24" s="14">
         <v>4.0</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="29">
+      <c r="B24" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="28">
         <v>55.8604</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="28">
         <v>296.5652</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="20">
         <v>4.0</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="29">
         <v>186.8</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="51">
         <v>-72.2</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>111.0</v>
       </c>
       <c r="I24" s="14">
@@ -2692,7 +2828,7 @@
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="49"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="12"/>
       <c r="N24" s="16"/>
       <c r="O24" s="12"/>
@@ -2720,11 +2856,17 @@
       <c r="Y24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="48" t="s">
-        <v>68</v>
+      <c r="Z24" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA24" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB24" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD24" s="14">
         <v>1.0</v>
@@ -2758,25 +2900,25 @@
       <c r="A25" s="14">
         <v>5.0</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="B25" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="28">
         <v>55.8602</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="28">
         <v>296.565</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="20">
         <v>6.0</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="29">
         <v>204.0</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="51">
         <v>-69.9</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="30">
         <v>220.0</v>
       </c>
       <c r="I25" s="14">
@@ -2784,7 +2926,7 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="49"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="12"/>
       <c r="N25" s="16"/>
       <c r="O25" s="12"/>
@@ -2812,11 +2954,17 @@
       <c r="Y25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="48" t="s">
-        <v>68</v>
+      <c r="Z25" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA25" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB25" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC25" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD25" s="14">
         <v>1.0</v>
@@ -2850,25 +2998,25 @@
       <c r="A26" s="14">
         <v>11.0</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="29">
+      <c r="B26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="28">
         <v>55.8575</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="28">
         <v>296.5622</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="20">
         <v>6.0</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="29">
         <v>183.3</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="51">
         <v>-66.4</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="30">
         <v>908.0</v>
       </c>
       <c r="I26" s="14">
@@ -2876,7 +3024,7 @@
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="49"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="12"/>
       <c r="N26" s="16"/>
       <c r="O26" s="12"/>
@@ -2904,11 +3052,17 @@
       <c r="Y26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="48" t="s">
-        <v>68</v>
+      <c r="Z26" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA26" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB26" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD26" s="14">
         <v>1.0</v>
@@ -2942,25 +3096,25 @@
       <c r="A27" s="14">
         <v>10.0</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="29">
+      <c r="B27" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="28">
         <v>55.8574</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="28">
         <v>296.5618</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="20">
         <v>6.0</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <v>191.5</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="51">
         <v>-68.3</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="30">
         <v>432.0</v>
       </c>
       <c r="I27" s="14">
@@ -2968,7 +3122,7 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="49"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="12"/>
       <c r="N27" s="16"/>
       <c r="O27" s="12"/>
@@ -2996,11 +3150,17 @@
       <c r="Y27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="48" t="s">
-        <v>68</v>
+      <c r="Z27" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA27" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB27" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD27" s="14">
         <v>1.0</v>
@@ -3034,25 +3194,25 @@
       <c r="A28" s="14">
         <v>9.0</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="29">
+      <c r="B28" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="28">
         <v>55.8573</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="28">
         <v>296.5618</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="20">
         <v>7.0</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="29">
         <v>187.8</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="51">
         <v>-65.1</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="30">
         <v>178.0</v>
       </c>
       <c r="I28" s="14">
@@ -3060,7 +3220,7 @@
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="49"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="12"/>
       <c r="N28" s="16"/>
       <c r="O28" s="12"/>
@@ -3088,11 +3248,17 @@
       <c r="Y28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="48" t="s">
-        <v>68</v>
+      <c r="Z28" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA28" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB28" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD28" s="14">
         <v>1.0</v>
@@ -3126,25 +3292,25 @@
       <c r="A29" s="14">
         <v>6.0</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="29">
+      <c r="B29" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="28">
         <v>55.9208</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
         <v>296.6072</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="20">
         <v>15.0</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="29">
         <v>182.8</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="51">
         <v>-56.7</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="30">
         <v>85.0</v>
       </c>
       <c r="I29" s="14">
@@ -3180,11 +3346,17 @@
       <c r="Y29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="48" t="s">
-        <v>68</v>
+      <c r="Z29" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA29" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB29" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD29" s="14">
         <v>2.0</v>
@@ -3198,7 +3370,7 @@
       <c r="AG29" s="14">
         <v>0.0</v>
       </c>
-      <c r="AH29" s="48">
+      <c r="AH29" s="53">
         <v>14.0</v>
       </c>
       <c r="AI29" s="24" t="s">
@@ -3208,7 +3380,7 @@
         <v>47</v>
       </c>
       <c r="AK29" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL29" s="24" t="s">
         <v>49</v>
@@ -3220,27 +3392,27 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="29">
+        <v>80</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="28">
         <v>55.9208</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="28">
         <v>296.6072</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="20">
         <v>15.0</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <v>183.5</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="51">
         <v>-60.4</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="30">
         <v>80.0</v>
       </c>
       <c r="I30" s="14">
@@ -3248,7 +3420,7 @@
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="49"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="12"/>
       <c r="N30" s="16"/>
       <c r="O30" s="12"/>
@@ -3276,11 +3448,17 @@
       <c r="Y30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="48" t="s">
-        <v>68</v>
+      <c r="Z30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA30" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB30" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD30" s="14">
         <v>2.0</v>
@@ -3302,7 +3480,7 @@
         <v>47</v>
       </c>
       <c r="AK30" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL30" s="24" t="s">
         <v>49</v>
@@ -3316,25 +3494,25 @@
       <c r="A31" s="14">
         <v>7.0</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="29">
+      <c r="B31" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="28">
         <v>55.9193</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="28">
         <v>296.60609999999997</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="20">
         <v>19.0</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="29">
         <v>184.9</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="51">
         <v>-65.6</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="30">
         <v>206.0</v>
       </c>
       <c r="I31" s="14">
@@ -3342,7 +3520,7 @@
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="49"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="12"/>
       <c r="N31" s="16"/>
       <c r="O31" s="12"/>
@@ -3370,11 +3548,17 @@
       <c r="Y31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="48" t="s">
-        <v>68</v>
+      <c r="Z31" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA31" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB31" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD31" s="14">
         <v>2.0</v>
@@ -3388,7 +3572,7 @@
       <c r="AG31" s="14">
         <v>0.0</v>
       </c>
-      <c r="AH31" s="48">
+      <c r="AH31" s="53">
         <v>14.0</v>
       </c>
       <c r="AI31" s="24" t="s">
@@ -3398,7 +3582,7 @@
         <v>47</v>
       </c>
       <c r="AK31" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL31" s="24" t="s">
         <v>49</v>
@@ -3410,27 +3594,27 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="29">
+        <v>82</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="28">
         <v>55.9193</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
         <v>296.60609999999997</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="20">
         <v>19.0</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="29">
         <v>184.6</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="51">
         <v>-65.2</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="30">
         <v>193.0</v>
       </c>
       <c r="I32" s="14">
@@ -3438,7 +3622,7 @@
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="49"/>
+      <c r="L32" s="52"/>
       <c r="M32" s="12"/>
       <c r="N32" s="16"/>
       <c r="O32" s="12"/>
@@ -3466,11 +3650,17 @@
       <c r="Y32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="48" t="s">
-        <v>68</v>
+      <c r="Z32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA32" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB32" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD32" s="14">
         <v>2.0</v>
@@ -3492,7 +3682,7 @@
         <v>47</v>
       </c>
       <c r="AK32" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL32" s="24" t="s">
         <v>49</v>
@@ -3506,25 +3696,25 @@
       <c r="A33" s="14">
         <v>13.0</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>55.8322</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="28">
         <v>296.641</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="20">
         <v>10.0</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="29">
         <v>187.1</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="51">
         <v>-67.1</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="30">
         <v>168.0</v>
       </c>
       <c r="I33" s="14">
@@ -3560,11 +3750,17 @@
       <c r="Y33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="48" t="s">
-        <v>68</v>
+      <c r="Z33" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA33" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB33" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD33" s="14">
         <v>0.0</v>
@@ -3596,25 +3792,25 @@
       <c r="A34" s="14">
         <v>14.0</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <v>55.8322</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="28">
         <v>296.64639999999997</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="20">
         <v>4.0</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <v>188.4</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="51">
         <v>-65.7</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="30">
         <v>330.0</v>
       </c>
       <c r="I34" s="14">
@@ -3622,7 +3818,7 @@
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="49"/>
+      <c r="L34" s="52"/>
       <c r="M34" s="12"/>
       <c r="N34" s="16"/>
       <c r="O34" s="12"/>
@@ -3650,11 +3846,17 @@
       <c r="Y34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="48" t="s">
-        <v>68</v>
+      <c r="Z34" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA34" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB34" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD34" s="14">
         <v>0.0</v>
@@ -3686,25 +3888,25 @@
       <c r="A35" s="14">
         <v>15.0</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <v>55.8322</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="28">
         <v>296.6469</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="20">
         <v>5.0</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <v>181.0</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="51">
         <v>-60.7</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="30">
         <v>78.0</v>
       </c>
       <c r="I35" s="14">
@@ -3712,7 +3914,7 @@
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="49"/>
+      <c r="L35" s="52"/>
       <c r="M35" s="12"/>
       <c r="N35" s="16"/>
       <c r="O35" s="12"/>
@@ -3738,13 +3940,19 @@
         <v>44</v>
       </c>
       <c r="Y35" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="48" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="Z35" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA35" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB35" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD35" s="14">
         <v>0.0</v>
@@ -3773,31 +3981,31 @@
       <c r="AP35" s="14"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="28">
+      <c r="A36" s="20">
         <v>17.0</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="29">
+      <c r="B36" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="28">
         <v>55.8949</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="28">
         <v>296.5972</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="20">
         <v>8.0</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="54">
         <v>184.5</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="54">
         <v>-64.0</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="55">
         <v>129.0</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="20">
         <v>4.9</v>
       </c>
       <c r="J36" s="12"/>
@@ -3806,7 +4014,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="16"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="49"/>
+      <c r="P36" s="52"/>
       <c r="Q36" s="14">
         <v>36.6</v>
       </c>
@@ -3830,11 +4038,17 @@
       <c r="Y36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="48" t="s">
-        <v>68</v>
+      <c r="Z36" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA36" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB36" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="AD36" s="14">
         <v>0.0</v>
@@ -3863,32 +4077,32 @@
       <c r="AP36" s="14"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
+      <c r="Z37" s="31"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
@@ -3913,7 +4127,7 @@
       <c r="C38" s="26"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
-      <c r="F38" s="53"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
@@ -3924,7 +4138,7 @@
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
-      <c r="Q38" s="54"/>
+      <c r="Q38" s="58"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
@@ -3956,9 +4170,9 @@
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
-      <c r="D39" s="30"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="53"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
@@ -3969,7 +4183,7 @@
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
-      <c r="Q39" s="54"/>
+      <c r="Q39" s="58"/>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
       <c r="T39" s="26"/>
@@ -4001,9 +4215,9 @@
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
-      <c r="D40" s="30"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="53"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
@@ -4014,7 +4228,7 @@
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
-      <c r="Q40" s="54"/>
+      <c r="Q40" s="58"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26"/>
       <c r="T40" s="26"/>
@@ -4045,8 +4259,8 @@
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="53"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
@@ -4057,7 +4271,7 @@
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
-      <c r="Q41" s="54"/>
+      <c r="Q41" s="58"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
       <c r="T41" s="26"/>
@@ -4089,9 +4303,9 @@
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="53"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
@@ -4102,7 +4316,7 @@
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
-      <c r="Q42" s="54"/>
+      <c r="Q42" s="58"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="T42" s="26"/>
@@ -4134,9 +4348,9 @@
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="30"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="53"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
@@ -4147,7 +4361,7 @@
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
-      <c r="Q43" s="54"/>
+      <c r="Q43" s="58"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
@@ -4179,9 +4393,9 @@
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
-      <c r="D44" s="30"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="53"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
@@ -4192,7 +4406,7 @@
       <c r="N44" s="26"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
-      <c r="Q44" s="54"/>
+      <c r="Q44" s="58"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
@@ -4224,9 +4438,9 @@
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
-      <c r="D45" s="30"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="53"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
@@ -4237,7 +4451,7 @@
       <c r="N45" s="26"/>
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
-      <c r="Q45" s="54"/>
+      <c r="Q45" s="58"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
@@ -4269,9 +4483,9 @@
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
-      <c r="D46" s="30"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="53"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
@@ -4282,7 +4496,7 @@
       <c r="N46" s="26"/>
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
-      <c r="Q46" s="54"/>
+      <c r="Q46" s="58"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26"/>
       <c r="T46" s="26"/>
@@ -4314,9 +4528,9 @@
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
-      <c r="D47" s="30"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="53"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -4327,7 +4541,7 @@
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
       <c r="P47" s="26"/>
-      <c r="Q47" s="54"/>
+      <c r="Q47" s="58"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
@@ -4359,9 +4573,9 @@
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
-      <c r="D48" s="30"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="53"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
@@ -4372,7 +4586,7 @@
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
       <c r="P48" s="26"/>
-      <c r="Q48" s="54"/>
+      <c r="Q48" s="58"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26"/>
       <c r="T48" s="26"/>
@@ -4404,9 +4618,9 @@
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="30"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="53"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
@@ -4417,7 +4631,7 @@
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
       <c r="P49" s="26"/>
-      <c r="Q49" s="54"/>
+      <c r="Q49" s="58"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26"/>
       <c r="T49" s="26"/>
@@ -4449,9 +4663,9 @@
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
-      <c r="D50" s="30"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="53"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
@@ -4462,7 +4676,7 @@
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
       <c r="P50" s="26"/>
-      <c r="Q50" s="54"/>
+      <c r="Q50" s="58"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26"/>
       <c r="T50" s="26"/>
@@ -4494,9 +4708,9 @@
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
-      <c r="D51" s="30"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="53"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
@@ -4507,7 +4721,7 @@
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
-      <c r="Q51" s="54"/>
+      <c r="Q51" s="58"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -4539,9 +4753,9 @@
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
-      <c r="D52" s="30"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="53"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
@@ -4552,7 +4766,7 @@
       <c r="N52" s="26"/>
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
-      <c r="Q52" s="54"/>
+      <c r="Q52" s="58"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
       <c r="T52" s="26"/>
@@ -4584,9 +4798,9 @@
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
-      <c r="D53" s="30"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="53"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
@@ -4629,9 +4843,9 @@
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
-      <c r="D54" s="30"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="53"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
